--- a/pl/标准模板.xlsx
+++ b/pl/标准模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\用例管理\PL模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\API\pl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E154267-EAEA-4337-8909-E449DF7AC347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5183EC0B-7DFC-4D05-99F8-00AE33F23C7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDB1CD32-8FFD-384A-B613-503C30633C31}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6">
         <v>395</v>
